--- a/Analisis/SPRINTs/Back log SPRINT 11.xlsx
+++ b/Analisis/SPRINTs/Back log SPRINT 11.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Back log" sheetId="1" r:id="rId1"/>
     <sheet name="Cuentas X Cobrar" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -646,10 +646,13 @@
   <dimension ref="A1:O113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="B12" sqref="B12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -732,16 +735,16 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
       <c r="J4" s="9">
         <v>44512</v>
       </c>
@@ -1076,7 +1079,7 @@
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
     </row>
-    <row r="18" spans="1:15" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1126,7 +1129,7 @@
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
     </row>
-    <row r="20" spans="1:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>

--- a/Analisis/SPRINTs/Back log SPRINT 11.xlsx
+++ b/Analisis/SPRINTs/Back log SPRINT 11.xlsx
@@ -646,7 +646,7 @@
   <dimension ref="A1:O113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:I12"/>
+      <selection activeCell="B5" sqref="B5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,16 +760,16 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
       <c r="J5" s="9">
         <v>44512</v>
       </c>
@@ -3194,6 +3194,7 @@
     <mergeCell ref="N16:O16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Analisis/SPRINTs/Back log SPRINT 11.xlsx
+++ b/Analisis/SPRINTs/Back log SPRINT 11.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\comercializadora\Analisis\SPRINTs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F9AC83-5237-434C-AC44-214439FAEDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30E5810-5578-40A5-9038-C91E19B2D5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{0A71882B-5058-4610-9DA4-C6550A2C23F2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{0A71882B-5058-4610-9DA4-C6550A2C23F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Back log" sheetId="1" r:id="rId1"/>
     <sheet name="Cuentas X Cobrar" sheetId="2" r:id="rId2"/>
+    <sheet name="Pago en parcialidades" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
   <si>
     <t xml:space="preserve">pintar fecha alta en consulta de pedidos especiales </t>
   </si>
@@ -214,6 +215,30 @@
   </si>
   <si>
     <t>Flujo de las Cotizaciones .- Paso 1 guardar en cotizaciones , Un boton para generar pedido especial en la vista de cotizaciones - caso 1 validar que lo que se guardo en la cotizacion tiene stock en los almacenes correspondientes en caso de no ser asi, pintar una etiqueta con la leyenda insuficiente y la cantidad actual de ese producto en ese almacen -- caso 2 habilitar un boton para eliminar ese producto -- caso 3 puede agregar mas productos-- caso 4 puede volver a  guardar la cotizacion .</t>
+  </si>
+  <si>
+    <t>Agregar columna  que identifiqque si el pedido espacial  esta facturado  en ConsultarPedidos Especiales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">los complementos tambien se pueden cancelar </t>
+  </si>
+  <si>
+    <t>concepto la primer factura 99</t>
+  </si>
+  <si>
+    <t>cancelar complemento, y despues cancelar factura</t>
+  </si>
+  <si>
+    <t>fecha, importe y metodo de págo , campos obligatorios , factura inicial</t>
+  </si>
+  <si>
+    <t>cancela la factura siempre y cuando el cliente tambien lo admite , se queda en espera</t>
+  </si>
+  <si>
+    <t>cancela con aceptacion(depende del cliente con aceptacion), cancela sin aceptacion(en cuanto cancelo se realiza el proceso)</t>
+  </si>
+  <si>
+    <t>considerar los estatus de las cancelaciones</t>
   </si>
 </sst>
 </file>
@@ -646,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1630ADF4-CA43-47DF-913F-DD9A9553C8EA}">
   <dimension ref="A1:O113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M20"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,7 +1181,9 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -2801,6 +2828,21 @@
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N16:O16"/>
     <mergeCell ref="B23:I23"/>
     <mergeCell ref="B24:I24"/>
     <mergeCell ref="B25:I25"/>
@@ -2858,12 +2900,6 @@
     <mergeCell ref="B68:I68"/>
     <mergeCell ref="B69:I69"/>
     <mergeCell ref="B70:I70"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
     <mergeCell ref="B101:I101"/>
     <mergeCell ref="B102:I102"/>
     <mergeCell ref="B103:I103"/>
@@ -2882,8 +2918,6 @@
     <mergeCell ref="B83:I83"/>
     <mergeCell ref="B84:I84"/>
     <mergeCell ref="B85:I85"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="J19:K19"/>
@@ -2927,6 +2961,9 @@
     <mergeCell ref="J35:K35"/>
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
     <mergeCell ref="J65:K65"/>
     <mergeCell ref="J66:K66"/>
     <mergeCell ref="J67:K67"/>
@@ -2936,12 +2973,6 @@
     <mergeCell ref="J59:K59"/>
     <mergeCell ref="J60:K60"/>
     <mergeCell ref="J61:K61"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
     <mergeCell ref="J62:K62"/>
     <mergeCell ref="J63:K63"/>
     <mergeCell ref="J64:K64"/>
@@ -2957,10 +2988,6 @@
     <mergeCell ref="J47:K47"/>
     <mergeCell ref="J48:K48"/>
     <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="N16:O16"/>
     <mergeCell ref="N17:O17"/>
     <mergeCell ref="N18:O18"/>
     <mergeCell ref="N19:O19"/>
@@ -3199,8 +3226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A8E6BE-2CC7-48DF-9017-DADF2136C490}">
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:T3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3623,4 +3650,1559 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB0155B-0F91-435D-8B7A-3331DBD26B3E}">
+  <dimension ref="A1:I127"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="6"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="6"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="6"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="6"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="6"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="6"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="6"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="6"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="6"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="6"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="6"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="6"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="6"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="6"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="6"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="6"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="6"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="6"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="6"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="6"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="6"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="6"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="6"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="6"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="6"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="6"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="6"/>
+      <c r="B125" s="6"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="6"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="6"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="6"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="6"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
+      <c r="I127" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="127">
+    <mergeCell ref="A127:I127"/>
+    <mergeCell ref="A121:I121"/>
+    <mergeCell ref="A122:I122"/>
+    <mergeCell ref="A123:I123"/>
+    <mergeCell ref="A124:I124"/>
+    <mergeCell ref="A125:I125"/>
+    <mergeCell ref="A126:I126"/>
+    <mergeCell ref="A115:I115"/>
+    <mergeCell ref="A116:I116"/>
+    <mergeCell ref="A117:I117"/>
+    <mergeCell ref="A118:I118"/>
+    <mergeCell ref="A119:I119"/>
+    <mergeCell ref="A120:I120"/>
+    <mergeCell ref="A109:I109"/>
+    <mergeCell ref="A110:I110"/>
+    <mergeCell ref="A111:I111"/>
+    <mergeCell ref="A112:I112"/>
+    <mergeCell ref="A113:I113"/>
+    <mergeCell ref="A114:I114"/>
+    <mergeCell ref="A103:I103"/>
+    <mergeCell ref="A104:I104"/>
+    <mergeCell ref="A105:I105"/>
+    <mergeCell ref="A106:I106"/>
+    <mergeCell ref="A107:I107"/>
+    <mergeCell ref="A108:I108"/>
+    <mergeCell ref="A97:I97"/>
+    <mergeCell ref="A98:I98"/>
+    <mergeCell ref="A99:I99"/>
+    <mergeCell ref="A100:I100"/>
+    <mergeCell ref="A101:I101"/>
+    <mergeCell ref="A102:I102"/>
+    <mergeCell ref="A91:I91"/>
+    <mergeCell ref="A92:I92"/>
+    <mergeCell ref="A93:I93"/>
+    <mergeCell ref="A94:I94"/>
+    <mergeCell ref="A95:I95"/>
+    <mergeCell ref="A96:I96"/>
+    <mergeCell ref="A85:I85"/>
+    <mergeCell ref="A86:I86"/>
+    <mergeCell ref="A87:I87"/>
+    <mergeCell ref="A88:I88"/>
+    <mergeCell ref="A89:I89"/>
+    <mergeCell ref="A90:I90"/>
+    <mergeCell ref="A79:I79"/>
+    <mergeCell ref="A80:I80"/>
+    <mergeCell ref="A81:I81"/>
+    <mergeCell ref="A82:I82"/>
+    <mergeCell ref="A83:I83"/>
+    <mergeCell ref="A84:I84"/>
+    <mergeCell ref="A73:I73"/>
+    <mergeCell ref="A74:I74"/>
+    <mergeCell ref="A75:I75"/>
+    <mergeCell ref="A76:I76"/>
+    <mergeCell ref="A77:I77"/>
+    <mergeCell ref="A78:I78"/>
+    <mergeCell ref="A67:I67"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="A69:I69"/>
+    <mergeCell ref="A70:I70"/>
+    <mergeCell ref="A71:I71"/>
+    <mergeCell ref="A72:I72"/>
+    <mergeCell ref="A61:I61"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="A63:I63"/>
+    <mergeCell ref="A64:I64"/>
+    <mergeCell ref="A65:I65"/>
+    <mergeCell ref="A66:I66"/>
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="A56:I56"/>
+    <mergeCell ref="A57:I57"/>
+    <mergeCell ref="A58:I58"/>
+    <mergeCell ref="A59:I59"/>
+    <mergeCell ref="A60:I60"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="A50:I50"/>
+    <mergeCell ref="A51:I51"/>
+    <mergeCell ref="A52:I52"/>
+    <mergeCell ref="A53:I53"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="A45:I45"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Analisis/SPRINTs/Back log SPRINT 11.xlsx
+++ b/Analisis/SPRINTs/Back log SPRINT 11.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\comercializadora\Analisis\SPRINTs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30E5810-5578-40A5-9038-C91E19B2D5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03856680-3238-47B5-993E-4307768DB2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{0A71882B-5058-4610-9DA4-C6550A2C23F2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{0A71882B-5058-4610-9DA4-C6550A2C23F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Back log" sheetId="1" r:id="rId1"/>
     <sheet name="Cuentas X Cobrar" sheetId="2" r:id="rId2"/>
     <sheet name="Pago en parcialidades" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
   <si>
     <t xml:space="preserve">pintar fecha alta en consulta de pedidos especiales </t>
   </si>
@@ -196,18 +197,12 @@
     <t>Erni</t>
   </si>
   <si>
-    <t>hacer ventana de tipo de pago agregar montos de pago, iva, etc (como el de venta) Y modificar modal de pago a xl y subir el tipo de pago y en el espacio de abajo poner el desglose de ventas</t>
-  </si>
-  <si>
     <t>Afectar las tablas de PedidosEspecialesCuentasPorCobrar PedidosEspecialesAbonosCuentasPorCobrar</t>
   </si>
   <si>
     <t>Boton de Aprobobar descuento de mayoreo por pedido especial</t>
   </si>
   <si>
-    <t>Pasar a venta el pedido especial (Terminar flujo) happy path del pedido especial</t>
-  </si>
-  <si>
     <t>Crear tabla PedidosEspecialesAbonoClientes</t>
   </si>
   <si>
@@ -239,6 +234,51 @@
   </si>
   <si>
     <t>considerar los estatus de las cancelaciones</t>
+  </si>
+  <si>
+    <t>Cuando se genera un pedido especial de liquidos no acepta decimales</t>
+  </si>
+  <si>
+    <t>IdFactura</t>
+  </si>
+  <si>
+    <t>IdFacturaComplementos</t>
+  </si>
+  <si>
+    <t>Monto</t>
+  </si>
+  <si>
+    <t>UDID</t>
+  </si>
+  <si>
+    <t>231562-3152-6545-2165</t>
+  </si>
+  <si>
+    <t>MetadoPago</t>
+  </si>
+  <si>
+    <t>99 - PagoParcialidades</t>
+  </si>
+  <si>
+    <t>Pago en una sola exibicioon</t>
+  </si>
+  <si>
+    <t>caso 1 .- Se realiza la venta y tiene 2 abonos y los deseas facturar que sucede</t>
+  </si>
+  <si>
+    <t>Agregar columna monto de venta la pedidos especiales detalle</t>
+  </si>
+  <si>
+    <t>hacer ventana de tipo de pago agregar montos de pago, iva, etc (como el de venta) Y modificar modal de pago a xl y subir el tipo de pago y en el espacio de abajo poner el desglose de ventas, preguntar metodo de pago  Pago en una sola exibicion o en parcialidades , agregar si requiere factura y contemplar las validaciones</t>
+  </si>
+  <si>
+    <t>En entregar pedido especial cuan lo entrego no desaparece del listado, lo muestra y en las opciones solo puedo eliminar( lo cual es correcto) obtener sololos pendientes de envio</t>
+  </si>
+  <si>
+    <t>En entregar pedidos especial al eliminar  colocar los productos en sin acomodar del alamcen que lo solicito</t>
+  </si>
+  <si>
+    <t>Validar dias de credito y monto maximo al entregar pedido especial</t>
   </si>
 </sst>
 </file>
@@ -316,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -355,6 +395,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1630ADF4-CA43-47DF-913F-DD9A9553C8EA}">
   <dimension ref="A1:O113"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:M20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,10 +765,10 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="9">
+      <c r="J2" s="16">
         <v>44512</v>
       </c>
-      <c r="K2" s="6"/>
+      <c r="K2" s="17"/>
       <c r="L2" s="6" t="s">
         <v>37</v>
       </c>
@@ -743,10 +790,10 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="9">
+      <c r="J3" s="16">
         <v>44512</v>
       </c>
-      <c r="K3" s="6"/>
+      <c r="K3" s="17"/>
       <c r="L3" s="6" t="s">
         <v>37</v>
       </c>
@@ -768,10 +815,10 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="9">
+      <c r="J4" s="16">
         <v>44512</v>
       </c>
-      <c r="K4" s="6"/>
+      <c r="K4" s="17"/>
       <c r="L4" s="6" t="s">
         <v>37</v>
       </c>
@@ -793,10 +840,10 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="9">
+      <c r="J5" s="16">
         <v>44512</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="17"/>
       <c r="L5" s="6" t="s">
         <v>37</v>
       </c>
@@ -818,10 +865,10 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="9">
+      <c r="J6" s="16">
         <v>44512</v>
       </c>
-      <c r="K6" s="6"/>
+      <c r="K6" s="17"/>
       <c r="L6" s="6" t="s">
         <v>37</v>
       </c>
@@ -843,10 +890,10 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="9">
+      <c r="J7" s="16">
         <v>44512</v>
       </c>
-      <c r="K7" s="6"/>
+      <c r="K7" s="17"/>
       <c r="L7" s="6" t="s">
         <v>37</v>
       </c>
@@ -868,10 +915,10 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="9">
+      <c r="J8" s="16">
         <v>44512</v>
       </c>
-      <c r="K8" s="6"/>
+      <c r="K8" s="17"/>
       <c r="L8" s="6" t="s">
         <v>37</v>
       </c>
@@ -893,10 +940,10 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="9">
+      <c r="J9" s="16">
         <v>44512</v>
       </c>
-      <c r="K9" s="6"/>
+      <c r="K9" s="17"/>
       <c r="L9" s="6" t="s">
         <v>37</v>
       </c>
@@ -918,10 +965,10 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="9">
+      <c r="J10" s="16">
         <v>44512</v>
       </c>
-      <c r="K10" s="6"/>
+      <c r="K10" s="17"/>
       <c r="L10" s="6" t="s">
         <v>37</v>
       </c>
@@ -929,20 +976,20 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="B11" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
       <c r="J11" s="9">
         <v>44519</v>
       </c>
@@ -959,7 +1006,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -984,7 +1031,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1007,7 +1054,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1017,7 +1064,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="9">
-        <v>44526</v>
+        <v>44519</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6" t="s">
@@ -1066,12 +1113,12 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="9">
+      <c r="J16" s="16">
         <v>44512</v>
       </c>
-      <c r="K16" s="6"/>
+      <c r="K16" s="17"/>
       <c r="L16" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
@@ -1091,12 +1138,12 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="9">
+      <c r="J17" s="16">
         <v>44512</v>
       </c>
-      <c r="K17" s="6"/>
+      <c r="K17" s="17"/>
       <c r="L17" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
@@ -1116,12 +1163,12 @@
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="9">
+      <c r="J18" s="16">
         <v>44512</v>
       </c>
-      <c r="K18" s="6"/>
+      <c r="K18" s="17"/>
       <c r="L18" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
@@ -1132,7 +1179,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1141,12 +1188,12 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="9">
+      <c r="J19" s="16">
         <v>44512</v>
       </c>
-      <c r="K19" s="6"/>
+      <c r="K19" s="17"/>
       <c r="L19" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
@@ -1157,7 +1204,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -1171,7 +1218,7 @@
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
@@ -1182,7 +1229,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -1191,28 +1238,38 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="J21" s="9">
+        <v>44519</v>
+      </c>
       <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
+      <c r="L21" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="B22" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="9">
+        <v>44519</v>
+      </c>
       <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
+      <c r="L22" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
@@ -1221,7 +1278,9 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -1229,8 +1288,8 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
@@ -1240,7 +1299,9 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -1248,9 +1309,13 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
+      <c r="J24" s="9">
+        <v>44519</v>
+      </c>
       <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
+      <c r="L24" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
@@ -1259,7 +1324,9 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -3227,11 +3294,12 @@
   <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:W3"/>
+      <selection activeCell="W2" sqref="K2:W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
@@ -3656,15 +3724,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB0155B-0F91-435D-8B7A-3331DBD26B3E}">
   <dimension ref="A1:I127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -3677,7 +3745,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -3690,7 +3758,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3703,7 +3771,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -3716,7 +3784,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -3729,7 +3797,7 @@
     </row>
     <row r="6" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -3742,7 +3810,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -3776,7 +3844,9 @@
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
+      <c r="A10" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -5184,9 +5254,6 @@
     <mergeCell ref="A22:I22"/>
     <mergeCell ref="A23:I23"/>
     <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A15:I15"/>
     <mergeCell ref="A16:I16"/>
     <mergeCell ref="A17:I17"/>
     <mergeCell ref="A18:I18"/>
@@ -5202,7 +5269,202 @@
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A15:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4423B161-3518-4160-B418-8FB05E01D60D}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>50</v>
+      </c>
+      <c r="B2" s="18">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18">
+        <v>200</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>51</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>300</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>52</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>53</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>500</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>54</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="I6" s="18">
+        <f>SUM(I2:I5)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>55</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>56</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>57</v>
+      </c>
+      <c r="C9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>58</v>
+      </c>
+      <c r="C10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f>SUM(C6:C10)</f>
+        <v>2620</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Analisis/SPRINTs/Back log SPRINT 11.xlsx
+++ b/Analisis/SPRINTs/Back log SPRINT 11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\comercializadora\Analisis\SPRINTs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B231E743-18AC-463F-81EB-04B2CA3FE13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF05404-A74E-429E-A9C4-D083D2821AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{0A71882B-5058-4610-9DA4-C6550A2C23F2}"/>
   </bookViews>
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1630ADF4-CA43-47DF-913F-DD9A9553C8EA}">
   <dimension ref="A1:O113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34:M34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32:O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
